--- a/Data/aearep-398/candidatepackages.xlsx
+++ b/Data/aearep-398/candidatepackages.xlsx
@@ -14,47 +14,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>(Potential) missing package found</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>unique</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>rev</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>seast</t>
   </si>
   <si>
@@ -101,12 +83,6 @@
   </si>
   <si>
     <t>Mullin_Snyder_polyethylene_neighbor.do</t>
-  </si>
-  <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>elasticity_bounds_growing_linear_demand.do</t>
@@ -156,7 +132,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D10"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -164,13 +140,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -178,7 +154,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -190,7 +166,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -202,10 +178,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>499</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D4"/>
     </row>
@@ -214,10 +190,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>267</v>
+        <v>712</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D5"/>
     </row>
@@ -226,10 +202,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>279</v>
+        <v>746</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.24661156535148621</v>
       </c>
       <c r="D6"/>
     </row>
@@ -238,10 +214,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>565</v>
+        <v>998</v>
       </c>
       <c r="C7">
-        <v>0.18733422458171844</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D7"/>
     </row>
@@ -250,10 +226,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>698</v>
+        <v>2278</v>
       </c>
       <c r="C8">
-        <v>0.23143236339092255</v>
+        <v>0.75305783748626709</v>
       </c>
       <c r="D8"/>
     </row>
@@ -262,10 +238,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>745</v>
+        <v>2312</v>
       </c>
       <c r="C9">
-        <v>0.24701590836048126</v>
+        <v>0.76429754495620728</v>
       </c>
       <c r="D9"/>
     </row>
@@ -274,84 +250,12 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>985</v>
+        <v>2436</v>
       </c>
       <c r="C10">
-        <v>0.32659152150154114</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1798</v>
-      </c>
-      <c r="C11">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1817</v>
-      </c>
-      <c r="C12">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D12"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1859</v>
-      </c>
-      <c r="C13">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>2207</v>
-      </c>
-      <c r="C14">
-        <v>0.73176389932632446</v>
-      </c>
-      <c r="D14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>2331</v>
-      </c>
-      <c r="C15">
-        <v>0.77287799119949341</v>
-      </c>
-      <c r="D15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>2424</v>
-      </c>
-      <c r="C16">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D16"/>
     </row>
   </sheetData>
 </worksheet>
@@ -359,103 +263,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B10"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
